--- a/Contenido/1_Conceptos/Xlsx/Geometria.xlsx
+++ b/Contenido/1_Conceptos/Xlsx/Geometria.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\J.HSLB\Contenido\1_Conceptos\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD44CA4-C812-4795-B76E-03A8A80696E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F81A8-CABD-415B-99C6-2BA7B4DF24F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{FA95E0CD-CCCC-4A95-BA2E-85228A7718E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="C.Compuesto" sheetId="1" r:id="rId1"/>
+    <sheet name="C.Irregular" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>b</t>
   </si>
@@ -122,9 +123,6 @@
     <t>2. Geometría de la sección transversal</t>
   </si>
   <si>
-    <t>2. Estimación del área hidráulica</t>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
@@ -168,9 +166,6 @@
       </rPr>
       <t>total</t>
     </r>
-  </si>
-  <si>
-    <t>2. Estimación del radio hidráulico</t>
   </si>
   <si>
     <r>
@@ -271,16 +266,489 @@
   <si>
     <t>Ejemplo - Características Geométricas de un Canal con Sección Compuesta</t>
   </si>
+  <si>
+    <t>3. Estimación del área hidráulica</t>
+  </si>
+  <si>
+    <t>4. Estimación del radio hidráulico</t>
+  </si>
+  <si>
+    <r>
+      <t>4. Estimación de los factores de sección 'Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>' y transoprte 'U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>T (m)</t>
+  </si>
+  <si>
+    <t>D (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>Ejemplo - Características Geométricas de un Canal Irregular</t>
+  </si>
+  <si>
+    <t>1. Información inicial - Geometría de la sección transversal (Batimetría)</t>
+  </si>
+  <si>
+    <t>3. Estimación del perímetro mojado, área hidráulica y radio hidráulico.</t>
+  </si>
+  <si>
+    <t>h (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>A (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y=4.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y=4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y=3.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y=3.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y=2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y=1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y=1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>i-j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m)</t>
+    </r>
+  </si>
+  <si>
+    <t>juanrodace</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0\ &quot;m&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0\ &quot;m&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +781,39 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +823,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,31 +857,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,7 +991,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$18:$B$25</c:f>
+              <c:f>'C.Compuesto'!$B$18:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -505,7 +1024,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$18:$C$25</c:f>
+              <c:f>'C.Compuesto'!$C$18:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -813,7 +1332,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$E$30:$E$40</c:f>
+              <c:f>'C.Compuesto'!$E$30:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -855,7 +1374,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$30:$B$40</c:f>
+              <c:f>'C.Compuesto'!$B$30:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1295,7 +1814,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$F$45:$F$55</c:f>
+              <c:f>'C.Compuesto'!$F$45:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1337,7 +1856,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$30:$B$40</c:f>
+              <c:f>'C.Compuesto'!$B$30:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1689,6 +2208,2973 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1200"/>
+              <a:t>Factores de sección y transporte</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.205390117444086"/>
+          <c:y val="0.18638922092176563"/>
+          <c:w val="0.73708455229657166"/>
+          <c:h val="0.6131843429669066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Factor de sección, Zc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C.Compuesto'!$E$60:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6269587184657266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.531698185319719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.870645386522376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.4233761939829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.10548978043952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.888730484384382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.046094438969916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100.15342397209061</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.6455928782924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>155.42332222324001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C.Compuesto'!$B$60:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D24-4D7C-A612-BF8A34BBE45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Foctor de transporte, Uc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C.Compuesto'!$F$60:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0714931347702152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9282384905052279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.946586701235528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.979777505983876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.999610875468527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.029994449461284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.286341943042601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109.73328554920076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.21887685039661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173.54962308391583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C.Compuesto'!$B$60:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1D24-4D7C-A612-BF8A34BBE45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1122726703"/>
+        <c:axId val="1122728143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1122726703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="900"/>
+                  <a:t>Parámetro Geométrico</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122728143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1122728143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="900"/>
+                  <a:t>Profundidad, y(m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122726703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60005769080845095"/>
+          <c:y val="0.583850370346784"/>
+          <c:w val="0.30773483314585681"/>
+          <c:h val="0.16987020386210211"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Sección Transversal - Batimetría</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13610326807762083"/>
+          <c:y val="0.14007645882588904"/>
+          <c:w val="0.80637119562981607"/>
+          <c:h val="0.77922757136866161"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$B$7:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$C$7:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D77A-47B3-9ACB-80130E672588}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1122726703"/>
+        <c:axId val="1122728143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1122726703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>x (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122728143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1122728143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>y (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122726703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Área</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> de flujo y perimetro mojado</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0409700225368178E-2"/>
+          <c:y val="0.17079904813495578"/>
+          <c:w val="0.86468946392593249"/>
+          <c:h val="0.66436804103362823"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Área de flujo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$C$58:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6416666666666657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.591666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.574999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$B$58:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68EE-4409-AC72-F128BB559F50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Perimetro mojado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$D$58:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0815540802690524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9066948502054943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9062185625078882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.24453945795331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.139425604095475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.782117246988491</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.427236976412093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.728476898135341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$B$58:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68EE-4409-AC72-F128BB559F50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1122726703"/>
+        <c:axId val="1122728143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1122726703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Área (m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="30000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>) y Perímetro mojado (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122728143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1122728143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Profundidad de flujo,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> y(m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122726703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64999583256792193"/>
+          <c:y val="0.63785987058966331"/>
+          <c:w val="0.27837133684156207"/>
+          <c:h val="0.1653057565682248"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1400"/>
+              <a:t>Factores de sección y transporte</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15605035080371854"/>
+          <c:y val="0.18638922092176563"/>
+          <c:w val="0.7864242625792186"/>
+          <c:h val="0.6131843429669066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Factor de Sección, Zc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$E$75:$E$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0335860498691023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9460450846273787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6291937229515518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.812152497550176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.25743359775268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.904693995807875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.311419107300857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.31194951616115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$B$75:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BD4-48A9-BE11-E62DAB30841B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Factor de Forma, Uc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$F$75:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7169016656513085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4074824761892897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4696790099306671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.308051341317224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.301712114176155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.948840696719017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.352876445642622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.869344139478585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$B$75:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BD4-48A9-BE11-E62DAB30841B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1122726703"/>
+        <c:axId val="1122728143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1122726703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="900"/>
+                  <a:t>Parámetro Geométrico</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122728143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1122728143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="900"/>
+                  <a:t>Profundidad, y(m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122726703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.467844571813407"/>
+          <c:y val="0.54787747533839903"/>
+          <c:w val="0.31992235129024715"/>
+          <c:h val="0.14966617749111946"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Radio hidráulico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14316743850880212"/>
+          <c:y val="0.15371739480576513"/>
+          <c:w val="0.8119316768775815"/>
+          <c:h val="0.68144969436281899"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Radio hidráulico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$E$58:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0.52149400717579109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76375170966805528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97029582263398573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4037231513929631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5443548371185609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6580631683897877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6412990899773143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0038415898100199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C.Irregular'!$B$58:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B7F-4593-AD0E-51E602FEFA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1122726703"/>
+        <c:axId val="1122728143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1122726703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Radio hidráulico (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122728143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1122728143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Profundidad de flujo,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> y(m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122726703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1809,6 +5295,194 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2842,6 +6516,2586 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3469,6 +9723,351 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38D7029-C368-D99C-31BF-19FEACBFAC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190751" y="563564"/>
+          <a:ext cx="2730500" cy="2019681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>497417</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>8316</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Gráfico 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514DF355-62E7-4F76-ACF5-AECB8F18DEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>195602</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>845720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Gráfico 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE4E546-9FCC-44F6-96DF-F7D2A4324612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="195602" y="72410"/>
+          <a:ext cx="650118" cy="679155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>408275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285132</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21205671-0614-46AF-A566-B507FD34AE2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>175484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>623454</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFD5825-91A6-447D-B3AC-E414F3E9D491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>417464</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>143451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232281</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6AD104-19D5-4A75-9C06-CCC425075C08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8658</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60614</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>55838</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FF36C9-7C0F-40FB-82BB-3F002B508EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>851201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BA7A16-E98E-C424-BC68-F534A074E5F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201083" y="84667"/>
+          <a:ext cx="650118" cy="663725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3771,667 +10370,2409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA151A42-70FE-4B49-BC99-5CD246E7AF51}">
-  <dimension ref="B2:F55"/>
+  <dimension ref="A2:F70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
-    <col min="2" max="6" width="8.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="8.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>21</v>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f>+C6+(2*C8*C9)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f>+C7+(2*(C11-C8)*C10)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>+C11</f>
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <f>+C10*(C11-C8)</f>
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>+C8</f>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <f>+B19+0.5*(C7-C12)</f>
         <v>3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>+C19</f>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <f>+B20+(C8*C9)</f>
         <v>6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f>+B21+C6</f>
         <v>16</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f>+C21</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <f>+B22+C8*C9</f>
         <v>19</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f>+C20</f>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <f>+B23+0.5*(C7-C12)</f>
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>+C23</f>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <f>+C13</f>
         <v>22</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>+C11</f>
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>12</v>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f>IF(B30&lt;$C$8,$C$6*B30+(B30^2*$C$9),$C$6*$C$8+($C$8^2*$C$9))</f>
         <v>0</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f>IF(B30&gt;$C$8,$C$7*(B30-$C$8)+((B30-$C$8)^2*$C$10),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <f>+D30+C30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <f>+C11/10</f>
         <v>0.5</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" ref="C31:C40" si="0">IF(B31&lt;$C$8,$C$6*B31+(B31^2*$C$9),$C$6*$C$8+($C$8^2*$C$9))</f>
         <v>5.25</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <f t="shared" ref="D31:D40" si="1">IF(B31&gt;$C$8,$C$7*(B31-$C$8)+((B31-$C$8)^2*$C$10),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" ref="E31:E40" si="2">+D31+C31</f>
         <v>5.25</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <f>+B31+($C$11/10)</f>
         <v>1</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <f t="shared" ref="B33:B40" si="3">+B32+($C$11/10)</f>
         <v>1.5</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>17.25</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <f t="shared" si="2"/>
         <v>17.25</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f t="shared" si="2"/>
         <v>31.25</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <f t="shared" si="1"/>
         <v>10.125</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <f t="shared" si="2"/>
         <v>49.125</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <f t="shared" si="1"/>
         <v>31.125</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <f t="shared" si="2"/>
         <v>70.125</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>16</v>
+      <c r="B42" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>0</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <f>IF(B45&lt;$C$8,$C$6+2*SQRT(B45^2+(B45*$C$9)),$C$6+2*SQRT($C$8^2+($C$8*$C$9)))</f>
         <v>10</v>
       </c>
-      <c r="D45" s="4">
-        <f t="shared" ref="D45:D55" si="4">IF(B45&gt;$C$8,($C$7-$C$12)+2*SQRT((B45-$C$8)^2+((B45-$C$8)*$C$9)),0)</f>
+      <c r="D45" s="3">
+        <f t="shared" ref="D45:D52" si="4">IF(B45&gt;$C$8,($C$7-$C$12)+2*SQRT((B45-$C$8)^2+((B45-$C$8)*$C$9)),0)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <f>+C45+D45</f>
         <v>10</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <f>+E30/E45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <f>+C11/10</f>
         <v>0.5</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <f t="shared" ref="C46:C55" si="5">IF(B46&lt;$C$8,$C$6+2*SQRT(B46^2+(B46*$C$9)),$C$6+2*SQRT($C$8^2+($C$8*$C$9)))</f>
         <v>11.732050807568877</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <f t="shared" ref="E46:E55" si="6">+C46+D46</f>
         <v>11.732050807568877</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <f t="shared" ref="F46:F55" si="7">+E31/E46</f>
         <v>0.44749209546663293</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <f>+B46+($C$11/10)</f>
         <v>1</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <f t="shared" si="5"/>
         <v>12.82842712474619</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <f t="shared" si="6"/>
         <v>12.82842712474619</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <f t="shared" si="7"/>
         <v>0.85747066986730336</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <f t="shared" ref="B48:B55" si="8">+B47+($C$11/10)</f>
         <v>1.5</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <f t="shared" si="5"/>
         <v>13.872983346207416</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <f t="shared" si="6"/>
         <v>13.872983346207416</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <f t="shared" si="7"/>
         <v>1.2434239679755537</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <f t="shared" si="5"/>
         <v>14.898979485566356</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <f t="shared" si="6"/>
         <v>14.898979485566356</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <f>+E34/E49</f>
         <v>1.6108485835053612</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <f t="shared" si="5"/>
         <v>15.916079783099615</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <f t="shared" si="6"/>
         <v>15.916079783099615</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <f t="shared" si="7"/>
         <v>1.9634231812021077</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <f t="shared" si="5"/>
         <v>16.928203230275507</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <f t="shared" si="6"/>
         <v>16.928203230275507</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <f t="shared" si="7"/>
         <v>2.3038475772933684</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <f t="shared" si="5"/>
         <v>16.928203230275507</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <f t="shared" si="4"/>
         <v>5.7320508075688767</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <f t="shared" si="6"/>
         <v>22.660254037844382</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <f t="shared" si="7"/>
         <v>2.1678927305032607</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <f t="shared" si="5"/>
         <v>16.928203230275507</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <f>IF(B53&gt;$C$8,($C$7-$C$12)+2*SQRT((B53-$C$8)^2+((B53-$C$8)*$C$9)),0)</f>
         <v>6.8284271247461898</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <f t="shared" si="6"/>
         <v>23.756630355021699</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <f t="shared" si="7"/>
         <v>2.5045639516558307</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <f t="shared" si="5"/>
         <v>16.928203230275507</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <f t="shared" ref="D54:D55" si="9">IF(B54&gt;$C$8,($C$7-$C$12)+2*SQRT((B54-$C$8)^2+((B54-$C$8)*$C$9)),0)</f>
         <v>7.872983346207417</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <f t="shared" si="6"/>
         <v>24.801186576482923</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <f t="shared" si="7"/>
         <v>2.8274856843540785</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <f t="shared" si="5"/>
         <v>16.928203230275507</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <f t="shared" si="9"/>
         <v>8.8989794855663558</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <f t="shared" si="6"/>
         <v>25.827182715841865</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <f t="shared" si="7"/>
         <v>3.1362305711461227</v>
       </c>
     </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <f>+B45</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" ref="C60:C65" si="10">IF(B60&lt;=$C$8,$C$6+(2*B60*$C$9),$C$7+(2*(B60-$C$8)*$C$10))</f>
+        <v>10</v>
+      </c>
+      <c r="D60" s="3">
+        <f>+E30/C60</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <f>+E30*SQRT(D60)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <f>+E30*(F45^(0.666666666666667))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <f t="shared" ref="B61:E70" si="11">+B46</f>
+        <v>0.5</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" ref="D61:D70" si="12">+E31/C61</f>
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" ref="E61:F70" si="13">+E31*SQRT(D61)</f>
+        <v>3.6269587184657266</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" ref="F61:F70" si="14">+E31*(F46^(0.666666666666667))</f>
+        <v>3.0714931347702152</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="12"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="13"/>
+        <v>10.531698185319719</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="14"/>
+        <v>9.9282384905052279</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="12"/>
+        <v>1.3269230769230769</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="13"/>
+        <v>19.870645386522376</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="14"/>
+        <v>19.946586701235528</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="D64" s="3">
+        <f>+E34/C64</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="13"/>
+        <v>31.4233761939829</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="14"/>
+        <v>32.979777505983876</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="12"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="13"/>
+        <v>45.10548978043952</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="14"/>
+        <v>48.999610875468527</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <f>IF(B66&lt;=$C$8,$C$6+(2*B66*$C$9),$C$7+(2*(B66-$C$8)*$C$10))</f>
+        <v>16</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="12"/>
+        <v>2.4375</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="13"/>
+        <v>60.888730484384382</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="14"/>
+        <v>68.029994449461284</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:C70" si="15">IF(B67&lt;=$C$8,$C$6+(2*B67*$C$9),$C$7+(2*(B67-$C$8)*$C$10))</f>
+        <v>20.5</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="12"/>
+        <v>2.3963414634146343</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="13"/>
+        <v>76.046094438969916</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="14"/>
+        <v>82.286341943042601</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="12"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="13"/>
+        <v>100.15342397209061</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="14"/>
+        <v>109.73328554920076</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="15"/>
+        <v>21.5</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="12"/>
+        <v>3.2616279069767442</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="13"/>
+        <v>126.6455928782924</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="14"/>
+        <v>140.21887685039661</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="12"/>
+        <v>3.6818181818181817</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="13"/>
+        <v>155.42332222324001</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="14"/>
+        <v>173.54962308391583</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{61F91308-C6F7-448A-9715-0269D9074FCF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90718F9B-558A-4E92-9B0C-4473AA019825}">
+  <dimension ref="A2:M83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="6" width="8.7109375" style="2" customWidth="1"/>
+    <col min="7" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D29" s="3">
+        <f>5.2-C29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D36" si="0">5.2-C30</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="E30" s="8">
+        <f>0.5*(D30+D29)*(B30-B29)</f>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F30" s="8">
+        <f>+SQRT((B30-B29)^2+(C30-C29)^2)</f>
+        <v>1.2206555615733703</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" ref="E31:E37" si="1">0.5*(D31+D30)*(B31-B30)</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" ref="F31:F50" si="2">+SQRT((B31-B30)^2+(C31-C30)^2)</f>
+        <v>1.0440306508910548</v>
+      </c>
+      <c r="G31" s="8">
+        <f>+E31-($D$30*(B31-B30))</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="E32" s="8">
+        <f>0.5*(D32+D31)*(B32-B31)</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="2"/>
+        <v>1.004987562112089</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" ref="G32:G49" si="3">+E32-($D$30*(B32-B31))</f>
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1500000000000008</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="2"/>
+        <v>3.0149626863362671</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0500000000000003</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="E34" s="8">
+        <f>0.5*(D34+D33)*(B34-B33)</f>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="H34" s="8">
+        <f>+E34-($D$33*(B34-B33))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="C35" s="10">
+        <f>((C36-C34)/(B36-B34))*B35+(C34-((C36-C34)/(B36-B34))*B34)</f>
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999989</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333282</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333259</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" ref="H35:H48" si="4">+E35-($D$33*(B35-B34))</f>
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="I35" s="8">
+        <f>+E35-($D$34*(B35-B34))</f>
+        <v>0.16666666666666652</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666672</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666679</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" ref="I36:I47" si="5">+E36-($D$34*(B36-B35))</f>
+        <v>1.3333333333333339</v>
+      </c>
+      <c r="J36" s="8">
+        <f>+E36-($D$35*(B36-B35))</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="D37" s="3">
+        <f>5.2-C37</f>
+        <v>3.1</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="2"/>
+        <v>1.004987562112089</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="3"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="4"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="5"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" ref="J37:J46" si="6">+E37-($D$35*(B37-B36))</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D38" s="3">
+        <f>5.2-C38</f>
+        <v>3.7</v>
+      </c>
+      <c r="E38" s="8">
+        <f>0.5*(D38+D37)*(B38-B37)</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1661903789690602</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="5"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" ref="K38:K45" si="7">+E38-($D$36*(B38-B37))</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="C39" s="10">
+        <f>((C40-C38)/(B40-B38))*B39+(C38-((C40-C38)/(B40-B38))*B38)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <f>5.2-C39</f>
+        <v>4.2</v>
+      </c>
+      <c r="E39" s="8">
+        <f>0.5*(D39+D38)*(B39-B38)</f>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="3"/>
+        <v>1.625</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="4"/>
+        <v>1.375</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="5"/>
+        <v>1.125</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="L39" s="8">
+        <f>+E39-($D$38*(B39-B38))</f>
+        <v>0.125</v>
+      </c>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f>5.2-C40</f>
+        <v>5.2</v>
+      </c>
+      <c r="E40" s="8">
+        <f>0.5*(D40+D39)*(B40-B39)</f>
+        <v>4.7</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" ref="L40:L44" si="8">+E40-($D$38*(B40-B39))</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
+        <f>+E40-($D$39*(B40-B39))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D41" s="3">
+        <f>5.2-C41</f>
+        <v>5</v>
+      </c>
+      <c r="E41" s="8">
+        <f>0.5*(D41+D40)*(B41-B40)</f>
+        <v>7.6499999999999995</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5132745950421556</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="4"/>
+        <v>5.85</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="5"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="6"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="7"/>
+        <v>2.8499999999999988</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="8"/>
+        <v>2.0999999999999988</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" ref="M41:M43" si="9">+E41-($D$39*(B41-B40))</f>
+        <v>1.3499999999999988</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D42" s="3">
+        <f>5.2-C42</f>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="E42" s="8">
+        <f>0.5*(D42+D41)*(B42-B41)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0770329614269007</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="3"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="5"/>
+        <v>3.1000000000000005</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="6"/>
+        <v>2.6000000000000005</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000005</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" si="9"/>
+        <v>0.60000000000000053</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <f>5.2-C43</f>
+        <v>4.2</v>
+      </c>
+      <c r="E43" s="8">
+        <f>0.5*(D43+D42)*(B43-B42)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>1.077032961426901</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="5"/>
+        <v>2.7</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="6"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="7"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="8"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="M43" s="8">
+        <f t="shared" si="9"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>18</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D44" s="3">
+        <f>5.2-C44</f>
+        <v>3.7</v>
+      </c>
+      <c r="E44" s="8">
+        <f>0.5*(D44+D43)*(B44-B43)</f>
+        <v>3.95</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="C45" s="10">
+        <f>((C46-C44)/(B46-B44))*B45+(C44-((C46-C44)/(B46-B44))*B44)</f>
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <f>5.2-C45</f>
+        <v>3.2</v>
+      </c>
+      <c r="E45" s="8">
+        <f>0.5*(D45+D44)*(B45-B44)</f>
+        <v>2.3000000000000043</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333426</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="3"/>
+        <v>1.8333333333333366</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000027</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1666666666666687</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333481</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3">
+        <f>5.2-C46</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E46" s="8">
+        <f>0.5*(D46+D45)*(B46-B45)</f>
+        <v>3.599999999999997</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666656</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666643</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999982</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333321</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>22</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="3">
+        <f>5.2-C47</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="E47" s="8">
+        <f>0.5*(D47+D46)*(B47-B46)</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="C48" s="10">
+        <f>((C49-C47)/(B49-B47))*B48+(C47-((C49-C47)/(B49-B47))*B47)</f>
+        <v>4</v>
+      </c>
+      <c r="D48" s="3">
+        <f>5.2-C48</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E48" s="8">
+        <f>0.5*(D48+D47)*(B48-B47)</f>
+        <v>2.1750000000000003</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="3"/>
+        <v>1.125</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>25</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D49" s="3">
+        <f>5.2-C49</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="E49" s="8">
+        <f>0.5*(D49+D48)*(B49-B48)</f>
+        <v>1.4250000000000003</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>28</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D50" s="3">
+        <f>5.2-C50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <f>0.5*(D50+D49)*(B50-B49)</f>
+        <v>1.0500000000000003</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="2"/>
+        <v>3.0805843601498726</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <f>+SUM(E30:E50)</f>
+        <v>61.574999999999996</v>
+      </c>
+      <c r="F51" s="9">
+        <f>+SUM(F30:F50)</f>
+        <v>30.728476898135341</v>
+      </c>
+      <c r="G51" s="9">
+        <f>+SUM(G30:G50)</f>
+        <v>43.375</v>
+      </c>
+      <c r="H51" s="9">
+        <f>+SUM(H30:H50)</f>
+        <v>32.800000000000004</v>
+      </c>
+      <c r="I51" s="9">
+        <f>+SUM(I30:I50)</f>
+        <v>24.925000000000001</v>
+      </c>
+      <c r="J51" s="9">
+        <f>+SUM(J30:J50)</f>
+        <v>18.591666666666669</v>
+      </c>
+      <c r="K51" s="9">
+        <f>+SUM(K30:K50)</f>
+        <v>8.6416666666666657</v>
+      </c>
+      <c r="L51" s="9">
+        <f>+SUM(L30:L50)</f>
+        <v>5.2749999999999995</v>
+      </c>
+      <c r="M51" s="9">
+        <f>+SUM(M30:M50)</f>
+        <v>2.6499999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <f>+L49</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <f>+M51</f>
+        <v>2.6499999999999995</v>
+      </c>
+      <c r="D59" s="3">
+        <f>+SUM(F40:F43)</f>
+        <v>5.0815540802690524</v>
+      </c>
+      <c r="E59" s="3">
+        <f>+C59/D59</f>
+        <v>0.52149400717579109</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C60" s="3">
+        <f>+L51</f>
+        <v>5.2749999999999995</v>
+      </c>
+      <c r="D60" s="3">
+        <f>+SUM(F39:F44)</f>
+        <v>6.9066948502054943</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" ref="E60:E66" si="10">+C60/D60</f>
+        <v>0.76375170966805528</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3">
+        <f>+K51</f>
+        <v>8.6416666666666657</v>
+      </c>
+      <c r="D61" s="3">
+        <f>+SUM(F38:F45)</f>
+        <v>8.9062185625078882</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="10"/>
+        <v>0.97029582263398573</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <f>+J51</f>
+        <v>18.591666666666669</v>
+      </c>
+      <c r="D62" s="3">
+        <f>+SUM(F36:F46)</f>
+        <v>13.24453945795331</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4037231513929631</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C63" s="3">
+        <f>+I51</f>
+        <v>24.925000000000001</v>
+      </c>
+      <c r="D63" s="3">
+        <f>+SUM(F35:F47)</f>
+        <v>16.139425604095475</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5443548371185609</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3">
+        <f>+H51</f>
+        <v>32.800000000000004</v>
+      </c>
+      <c r="D64" s="3">
+        <f>+SUM(F34:F48)</f>
+        <v>19.782117246988491</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6580631683897877</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C65" s="3">
+        <f>+G51</f>
+        <v>43.375</v>
+      </c>
+      <c r="D65" s="3">
+        <f>+SUM(F31:F49)</f>
+        <v>26.427236976412093</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6412990899773143</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C66" s="3">
+        <f>+E51</f>
+        <v>61.574999999999996</v>
+      </c>
+      <c r="D66" s="3">
+        <f>+F51</f>
+        <v>30.728476898135341</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="10"/>
+        <v>2.0038415898100199</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <f>+C58*SQRT(D75)</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <f>+C58*(E58^(0.666666666666667))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <f>+B43-B39</f>
+        <v>4.5</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" ref="D76:D83" si="11">+C59/C76</f>
+        <v>0.5888888888888888</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" ref="E76:E83" si="12">+C59*SQRT(D76)</f>
+        <v>2.0335860498691023</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" ref="F76:F83" si="13">+C59*(E59^(0.666666666666667))</f>
+        <v>1.7169016656513085</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C77" s="3">
+        <f>+B44-B38</f>
+        <v>6</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="11"/>
+        <v>0.87916666666666654</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="12"/>
+        <v>4.9460450846273787</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4074824761892897</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3">
+        <f>+B45-B36</f>
+        <v>8.6666666666666679</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9971153846153844</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="12"/>
+        <v>8.6291937229515518</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="13"/>
+        <v>8.4696790099306671</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3">
+        <f>+B46-B35</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="11"/>
+        <v>1.6404411764705884</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="12"/>
+        <v>23.812152497550176</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="13"/>
+        <v>23.308051341317224</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C80" s="3">
+        <f>+B47-B34</f>
+        <v>14</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="11"/>
+        <v>1.780357142857143</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="12"/>
+        <v>33.25743359775268</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="13"/>
+        <v>33.301712114176155</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3">
+        <f>+B48-B33</f>
+        <v>17.5</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="11"/>
+        <v>1.8742857142857146</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="12"/>
+        <v>44.904693995807875</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="13"/>
+        <v>45.948840696719017</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C82" s="3">
+        <f>+B49-B30</f>
+        <v>24</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="11"/>
+        <v>1.8072916666666667</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="12"/>
+        <v>58.311419107300857</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="13"/>
+        <v>60.352876445642622</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="C83" s="3">
+        <f>+B50</f>
+        <v>28</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="11"/>
+        <v>2.1991071428571427</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="12"/>
+        <v>91.31194951616115</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="13"/>
+        <v>97.869344139478585</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M22:N67">
+    <sortCondition ref="N22:N67"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{7A4F0F92-118D-488C-B935-A0BE9F0EB733}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Contenido/1_Conceptos/Xlsx/Geometria.xlsx
+++ b/Contenido/1_Conceptos/Xlsx/Geometria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\J.HSLB\Contenido\1_Conceptos\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F81A8-CABD-415B-99C6-2BA7B4DF24F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7B1F8-60F8-4914-9282-73FE27476267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{FA95E0CD-CCCC-4A95-BA2E-85228A7718E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA95E0CD-CCCC-4A95-BA2E-85228A7718E6}"/>
   </bookViews>
   <sheets>
     <sheet name="C.Compuesto" sheetId="1" r:id="rId1"/>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>bv</t>
-  </si>
-  <si>
-    <t>z1</t>
-  </si>
-  <si>
-    <t>z2</t>
   </si>
   <si>
     <t>x (m)</t>
@@ -739,6 +733,36 @@
   <si>
     <t>juanrodace</t>
   </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -813,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -892,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10372,8 +10405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA151A42-70FE-4B49-BC99-5CD246E7AF51}">
   <dimension ref="A2:F70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -10385,17 +10418,17 @@
   <sheetData>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10416,7 +10449,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -10424,7 +10457,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -10432,7 +10465,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3">
         <v>0.5</v>
@@ -10440,7 +10473,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -10448,7 +10481,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <f>+C6+(2*C8*C9)</f>
@@ -10457,7 +10490,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <f>+C7+(2*(C11-C8)*C10)</f>
@@ -10466,15 +10499,15 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -10557,21 +10590,21 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -10773,24 +10806,24 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -11036,24 +11069,24 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -11080,7 +11113,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
-        <f t="shared" ref="B61:E70" si="11">+B46</f>
+        <f t="shared" ref="B61:B70" si="11">+B46</f>
         <v>0.5</v>
       </c>
       <c r="C61" s="3">
@@ -11092,7 +11125,7 @@
         <v>0.47727272727272729</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" ref="E61:F70" si="13">+E31*SQRT(D61)</f>
+        <f t="shared" ref="E61:E70" si="13">+E31*SQRT(D61)</f>
         <v>3.6269587184657266</v>
       </c>
       <c r="F61" s="3">
@@ -11311,8 +11344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90718F9B-558A-4E92-9B0C-4473AA019825}">
   <dimension ref="A2:M83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -11326,25 +11359,25 @@
   <sheetData>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11493,45 +11526,45 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -11789,7 +11822,7 @@
         <v>2.1</v>
       </c>
       <c r="D37" s="3">
-        <f>5.2-C37</f>
+        <f t="shared" ref="D37:D50" si="6">5.2-C37</f>
         <v>3.1</v>
       </c>
       <c r="E37" s="8">
@@ -11813,7 +11846,7 @@
         <v>1.4500000000000002</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" ref="J37:J46" si="6">+E37-($D$35*(B37-B36))</f>
+        <f t="shared" ref="J37:J46" si="7">+E37-($D$35*(B37-B36))</f>
         <v>0.95000000000000018</v>
       </c>
       <c r="K37" s="8"/>
@@ -11828,11 +11861,11 @@
         <v>1.5</v>
       </c>
       <c r="D38" s="3">
-        <f>5.2-C38</f>
+        <f t="shared" si="6"/>
         <v>3.7</v>
       </c>
       <c r="E38" s="8">
-        <f>0.5*(D38+D37)*(B38-B37)</f>
+        <f t="shared" ref="E38:E50" si="8">0.5*(D38+D37)*(B38-B37)</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="F38" s="8">
@@ -11852,11 +11885,11 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" ref="K38:K45" si="7">+E38-($D$36*(B38-B37))</f>
+        <f t="shared" ref="K38:K45" si="9">+E38-($D$36*(B38-B37))</f>
         <v>0.20000000000000018</v>
       </c>
       <c r="L38" s="8"/>
@@ -11871,11 +11904,11 @@
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <f>5.2-C39</f>
+        <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
       <c r="E39" s="8">
-        <f>0.5*(D39+D38)*(B39-B38)</f>
+        <f t="shared" si="8"/>
         <v>1.9750000000000001</v>
       </c>
       <c r="F39" s="8">
@@ -11895,11 +11928,11 @@
         <v>1.125</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
       <c r="L39" s="8">
@@ -11916,11 +11949,11 @@
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <f>5.2-C40</f>
+        <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
       <c r="E40" s="8">
-        <f>0.5*(D40+D39)*(B40-B39)</f>
+        <f t="shared" si="8"/>
         <v>4.7</v>
       </c>
       <c r="F40" s="8">
@@ -11940,15 +11973,15 @@
         <v>3</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" ref="L40:L44" si="8">+E40-($D$38*(B40-B39))</f>
+        <f t="shared" ref="L40:L44" si="10">+E40-($D$38*(B40-B39))</f>
         <v>1</v>
       </c>
       <c r="M40" s="8">
@@ -11964,11 +11997,11 @@
         <v>0.2</v>
       </c>
       <c r="D41" s="3">
-        <f>5.2-C41</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E41" s="8">
-        <f>0.5*(D41+D40)*(B41-B40)</f>
+        <f t="shared" si="8"/>
         <v>7.6499999999999995</v>
       </c>
       <c r="F41" s="8">
@@ -11988,19 +12021,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8499999999999988</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0999999999999988</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" ref="M41:M43" si="9">+E41-($D$39*(B41-B40))</f>
+        <f t="shared" ref="M41:M43" si="11">+E41-($D$39*(B41-B40))</f>
         <v>1.3499999999999988</v>
       </c>
     </row>
@@ -12012,11 +12045,11 @@
         <v>0.6</v>
       </c>
       <c r="D42" s="3">
-        <f>5.2-C42</f>
+        <f t="shared" si="6"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="E42" s="8">
-        <f>0.5*(D42+D41)*(B42-B41)</f>
+        <f t="shared" si="8"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="F42" s="8">
@@ -12036,19 +12069,19 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6000000000000005</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6000000000000005</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000005</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.60000000000000053</v>
       </c>
     </row>
@@ -12060,11 +12093,11 @@
         <v>1</v>
       </c>
       <c r="D43" s="3">
-        <f>5.2-C43</f>
+        <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
       <c r="E43" s="8">
-        <f>0.5*(D43+D42)*(B43-B42)</f>
+        <f t="shared" si="8"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F43" s="8">
@@ -12084,19 +12117,19 @@
         <v>2.7</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -12108,11 +12141,11 @@
         <v>1.5</v>
       </c>
       <c r="D44" s="3">
-        <f>5.2-C44</f>
+        <f t="shared" si="6"/>
         <v>3.7</v>
       </c>
       <c r="E44" s="8">
-        <f>0.5*(D44+D43)*(B44-B43)</f>
+        <f t="shared" si="8"/>
         <v>3.95</v>
       </c>
       <c r="F44" s="8">
@@ -12132,15 +12165,15 @@
         <v>2.25</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
       <c r="K44" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="M44" s="8"/>
@@ -12154,11 +12187,11 @@
         <v>2</v>
       </c>
       <c r="D45" s="3">
-        <f>5.2-C45</f>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
       <c r="E45" s="8">
-        <f>0.5*(D45+D44)*(B45-B44)</f>
+        <f t="shared" si="8"/>
         <v>2.3000000000000043</v>
       </c>
       <c r="F45" s="8">
@@ -12178,11 +12211,11 @@
         <v>1.1666666666666687</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83333333333333481</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16666666666666696</v>
       </c>
       <c r="L45" s="8"/>
@@ -12196,11 +12229,11 @@
         <v>3</v>
       </c>
       <c r="D46" s="3">
-        <f>5.2-C46</f>
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E46" s="8">
-        <f>0.5*(D46+D45)*(B46-B45)</f>
+        <f t="shared" si="8"/>
         <v>3.599999999999997</v>
       </c>
       <c r="F46" s="8">
@@ -12220,7 +12253,7 @@
         <v>1.3333333333333321</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666607</v>
       </c>
       <c r="K46" s="8"/>
@@ -12235,11 +12268,11 @@
         <v>3.5</v>
       </c>
       <c r="D47" s="3">
-        <f>5.2-C47</f>
+        <f t="shared" si="6"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="E47" s="8">
-        <f>0.5*(D47+D46)*(B47-B46)</f>
+        <f t="shared" si="8"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="F47" s="8">
@@ -12272,11 +12305,11 @@
         <v>4</v>
       </c>
       <c r="D48" s="3">
-        <f>5.2-C48</f>
+        <f t="shared" si="6"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="E48" s="8">
-        <f>0.5*(D48+D47)*(B48-B47)</f>
+        <f t="shared" si="8"/>
         <v>2.1750000000000003</v>
       </c>
       <c r="F48" s="8">
@@ -12305,11 +12338,11 @@
         <v>4.5</v>
       </c>
       <c r="D49" s="3">
-        <f>5.2-C49</f>
+        <f t="shared" si="6"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="E49" s="8">
-        <f>0.5*(D49+D48)*(B49-B48)</f>
+        <f t="shared" si="8"/>
         <v>1.4250000000000003</v>
       </c>
       <c r="F49" s="8">
@@ -12335,11 +12368,11 @@
         <v>5.2</v>
       </c>
       <c r="D50" s="3">
-        <f>5.2-C50</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <f>0.5*(D50+D49)*(B50-B49)</f>
+        <f t="shared" si="8"/>
         <v>1.0500000000000003</v>
       </c>
       <c r="F50" s="8">
@@ -12356,54 +12389,54 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E51" s="9">
-        <f>+SUM(E30:E50)</f>
+        <f t="shared" ref="E51:M51" si="12">+SUM(E30:E50)</f>
         <v>61.574999999999996</v>
       </c>
       <c r="F51" s="9">
-        <f>+SUM(F30:F50)</f>
+        <f t="shared" si="12"/>
         <v>30.728476898135341</v>
       </c>
       <c r="G51" s="9">
-        <f>+SUM(G30:G50)</f>
+        <f t="shared" si="12"/>
         <v>43.375</v>
       </c>
       <c r="H51" s="9">
-        <f>+SUM(H30:H50)</f>
+        <f t="shared" si="12"/>
         <v>32.800000000000004</v>
       </c>
       <c r="I51" s="9">
-        <f>+SUM(I30:I50)</f>
+        <f t="shared" si="12"/>
         <v>24.925000000000001</v>
       </c>
       <c r="J51" s="9">
-        <f>+SUM(J30:J50)</f>
+        <f t="shared" si="12"/>
         <v>18.591666666666669</v>
       </c>
       <c r="K51" s="9">
-        <f>+SUM(K30:K50)</f>
+        <f t="shared" si="12"/>
         <v>8.6416666666666657</v>
       </c>
       <c r="L51" s="9">
-        <f>+SUM(L30:L50)</f>
+        <f t="shared" si="12"/>
         <v>5.2749999999999995</v>
       </c>
       <c r="M51" s="9">
-        <f>+SUM(M30:M50)</f>
+        <f t="shared" si="12"/>
         <v>2.6499999999999995</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -12449,7 +12482,7 @@
         <v>6.9066948502054943</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" ref="E60:E66" si="10">+C60/D60</f>
+        <f t="shared" ref="E60:E66" si="13">+C60/D60</f>
         <v>0.76375170966805528</v>
       </c>
     </row>
@@ -12466,7 +12499,7 @@
         <v>8.9062185625078882</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97029582263398573</v>
       </c>
     </row>
@@ -12483,7 +12516,7 @@
         <v>13.24453945795331</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4037231513929631</v>
       </c>
     </row>
@@ -12500,7 +12533,7 @@
         <v>16.139425604095475</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5443548371185609</v>
       </c>
     </row>
@@ -12517,7 +12550,7 @@
         <v>19.782117246988491</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6580631683897877</v>
       </c>
     </row>
@@ -12534,7 +12567,7 @@
         <v>26.427236976412093</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6412990899773143</v>
       </c>
     </row>
@@ -12551,30 +12584,30 @@
         <v>30.728476898135341</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.0038415898100199</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -12605,15 +12638,15 @@
         <v>4.5</v>
       </c>
       <c r="D76" s="3">
-        <f t="shared" ref="D76:D83" si="11">+C59/C76</f>
+        <f t="shared" ref="D76:D83" si="14">+C59/C76</f>
         <v>0.5888888888888888</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" ref="E76:E83" si="12">+C59*SQRT(D76)</f>
+        <f t="shared" ref="E76:E83" si="15">+C59*SQRT(D76)</f>
         <v>2.0335860498691023</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" ref="F76:F83" si="13">+C59*(E59^(0.666666666666667))</f>
+        <f t="shared" ref="F76:F83" si="16">+C59*(E59^(0.666666666666667))</f>
         <v>1.7169016656513085</v>
       </c>
     </row>
@@ -12626,15 +12659,15 @@
         <v>6</v>
       </c>
       <c r="D77" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.87916666666666654</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.9460450846273787</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.4074824761892897</v>
       </c>
     </row>
@@ -12647,15 +12680,15 @@
         <v>8.6666666666666679</v>
       </c>
       <c r="D78" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.9971153846153844</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.6291937229515518</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.4696790099306671</v>
       </c>
     </row>
@@ -12668,15 +12701,15 @@
         <v>11.333333333333334</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6404411764705884</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>23.812152497550176</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23.308051341317224</v>
       </c>
     </row>
@@ -12689,15 +12722,15 @@
         <v>14</v>
       </c>
       <c r="D80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.780357142857143</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>33.25743359775268</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.301712114176155</v>
       </c>
     </row>
@@ -12710,15 +12743,15 @@
         <v>17.5</v>
       </c>
       <c r="D81" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8742857142857146</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>44.904693995807875</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>45.948840696719017</v>
       </c>
     </row>
@@ -12731,15 +12764,15 @@
         <v>24</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8072916666666667</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>58.311419107300857</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60.352876445642622</v>
       </c>
     </row>
@@ -12752,15 +12785,15 @@
         <v>28</v>
       </c>
       <c r="D83" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.1991071428571427</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>91.31194951616115</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>97.869344139478585</v>
       </c>
     </row>

--- a/Contenido/1_Conceptos/Xlsx/Geometria.xlsx
+++ b/Contenido/1_Conceptos/Xlsx/Geometria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\J.HSLB\Contenido\1_Conceptos\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7B1F8-60F8-4914-9282-73FE27476267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DC8CF-D809-4003-8CB1-4E32898182CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA95E0CD-CCCC-4A95-BA2E-85228A7718E6}"/>
   </bookViews>
@@ -1013,7 +1013,10 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1354,7 +1357,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1836,7 +1839,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4818,7 +4821,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9760,16 +9763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260570</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>111126</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>766379</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>170245</xdr:rowOff>
+      <xdr:rowOff>98954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9792,8 +9795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2190751" y="563564"/>
-          <a:ext cx="2730500" cy="2019681"/>
+          <a:off x="2384536" y="863851"/>
+          <a:ext cx="2246584" cy="1687517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9903,7 +9906,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>408275</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>125557</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -10406,7 +10409,7 @@
   <dimension ref="A2:F70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -11345,7 +11348,7 @@
   <dimension ref="A2:M83"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
